--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -534,22 +534,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H2">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I2">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J2">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N2">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O2">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P2">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q2">
-        <v>5.084905282975777</v>
+        <v>6.097833214246666</v>
       </c>
       <c r="R2">
-        <v>45.76414754678199</v>
+        <v>54.88049892821999</v>
       </c>
       <c r="S2">
-        <v>0.1318950707657606</v>
+        <v>0.2105443494625948</v>
       </c>
       <c r="T2">
-        <v>0.1561883791539618</v>
+        <v>0.2353868522328689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H3">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I3">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J3">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P3">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q3">
-        <v>4.644766233005111</v>
+        <v>8.895168796514664</v>
       </c>
       <c r="R3">
-        <v>41.80289609704599</v>
+        <v>80.05651916863198</v>
       </c>
       <c r="S3">
-        <v>0.1204785019386059</v>
+        <v>0.3071300020549224</v>
       </c>
       <c r="T3">
-        <v>0.1426690310065264</v>
+        <v>0.3433688179925556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H4">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I4">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J4">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N4">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O4">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P4">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q4">
-        <v>0.9952927785002222</v>
+        <v>1.882231655024</v>
       </c>
       <c r="R4">
-        <v>8.957635006502001</v>
+        <v>16.940084895216</v>
       </c>
       <c r="S4">
-        <v>0.02581645166379841</v>
+        <v>0.06498918967134948</v>
       </c>
       <c r="T4">
-        <v>0.03057149685325483</v>
+        <v>0.07265737990570767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H5">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I5">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J5">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N5">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O5">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P5">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q5">
-        <v>4.400584683763332</v>
+        <v>7.867870415331998</v>
       </c>
       <c r="R5">
-        <v>26.40350810258</v>
+        <v>47.20722249199198</v>
       </c>
       <c r="S5">
-        <v>0.1141447865742777</v>
+        <v>0.2716597191247911</v>
       </c>
       <c r="T5">
-        <v>0.09011248664262402</v>
+        <v>0.2024755554715416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H6">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I6">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J6">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N6">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O6">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P6">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q6">
-        <v>1.744488706317</v>
+        <v>1.558370053746667</v>
       </c>
       <c r="R6">
-        <v>15.700398356853</v>
+        <v>14.02533048372</v>
       </c>
       <c r="S6">
-        <v>0.04524950782074322</v>
+        <v>0.05380698317912513</v>
       </c>
       <c r="T6">
-        <v>0.05358386210344322</v>
+        <v>0.06015576495407837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H7">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I7">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J7">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N7">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O7">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P7">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q7">
-        <v>2.618756473258999</v>
+        <v>0.1303382932716667</v>
       </c>
       <c r="R7">
-        <v>15.712538839554</v>
+        <v>0.78202975963</v>
       </c>
       <c r="S7">
-        <v>0.06792674615104229</v>
+        <v>0.00450028562651302</v>
       </c>
       <c r="T7">
-        <v>0.05362529633562851</v>
+        <v>0.003354188228363165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H8">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I8">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J8">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>35.103086</v>
       </c>
       <c r="O8">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P8">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q8">
-        <v>2.392082243927</v>
+        <v>0.1901300148046667</v>
       </c>
       <c r="R8">
-        <v>14.352493463562</v>
+        <v>1.140780088828</v>
       </c>
       <c r="S8">
-        <v>0.06204714528244519</v>
+        <v>0.006564758148326547</v>
       </c>
       <c r="T8">
-        <v>0.04898359984964278</v>
+        <v>0.00489289710267335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H9">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I9">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J9">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N9">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O9">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P9">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q9">
-        <v>0.512581702399</v>
+        <v>0.040231809044</v>
       </c>
       <c r="R9">
-        <v>3.075490214394</v>
+        <v>0.241390854264</v>
       </c>
       <c r="S9">
-        <v>0.01329562620123876</v>
+        <v>0.001389113110388472</v>
       </c>
       <c r="T9">
-        <v>0.01049633517589353</v>
+        <v>0.001035344693518972</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H10">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I10">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J10">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N10">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O10">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P10">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q10">
-        <v>2.266327293315</v>
+        <v>0.168171999067</v>
       </c>
       <c r="R10">
-        <v>9.065309173259999</v>
+        <v>0.6726879962679999</v>
       </c>
       <c r="S10">
-        <v>0.05878524418752296</v>
+        <v>0.005806597671228684</v>
       </c>
       <c r="T10">
-        <v>0.03093897782873883</v>
+        <v>0.002885212654197276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H11">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I11">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J11">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N11">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O11">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P11">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q11">
-        <v>0.8984220625485001</v>
+        <v>0.03330942089666667</v>
       </c>
       <c r="R11">
-        <v>5.390532375291</v>
+        <v>0.19985652538</v>
       </c>
       <c r="S11">
-        <v>0.02330376573858387</v>
+        <v>0.001150098749385171</v>
       </c>
       <c r="T11">
-        <v>0.01839733851948172</v>
+        <v>0.0008572006327589432</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H12">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I12">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J12">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N12">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O12">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P12">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q12">
-        <v>3.916739306920443</v>
+        <v>0.4865406804533334</v>
       </c>
       <c r="R12">
-        <v>35.25065376228399</v>
+        <v>4.378866124080001</v>
       </c>
       <c r="S12">
-        <v>0.1015945389950283</v>
+        <v>0.01679914609894602</v>
       </c>
       <c r="T12">
-        <v>0.120306894597358</v>
+        <v>0.01878130726625604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H13">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I13">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J13">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.103086</v>
       </c>
       <c r="O13">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P13">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q13">
-        <v>3.577714325805777</v>
+        <v>0.7097375948053334</v>
       </c>
       <c r="R13">
-        <v>32.199428932252</v>
+        <v>6.387638353248001</v>
       </c>
       <c r="S13">
-        <v>0.09280072251526271</v>
+        <v>0.0245056292845649</v>
       </c>
       <c r="T13">
-        <v>0.1098933747093309</v>
+        <v>0.02739709212810832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H14">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I14">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J14">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N14">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O14">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P14">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q14">
-        <v>0.7666420769915555</v>
+        <v>0.150181587136</v>
       </c>
       <c r="R14">
-        <v>6.899778692923999</v>
+        <v>1.351634284224</v>
       </c>
       <c r="S14">
-        <v>0.01988558397249749</v>
+        <v>0.005185429554047828</v>
       </c>
       <c r="T14">
-        <v>0.02354824263834931</v>
+        <v>0.005797267622323227</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H15">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I15">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J15">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N15">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O15">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P15">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q15">
-        <v>3.389629116993333</v>
+        <v>0.627770372048</v>
       </c>
       <c r="R15">
-        <v>20.33777470196</v>
+        <v>3.766622232288</v>
       </c>
       <c r="S15">
-        <v>0.08792206489122287</v>
+        <v>0.0216754870051109</v>
       </c>
       <c r="T15">
-        <v>0.06941075572423602</v>
+        <v>0.01615534421376608</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H16">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I16">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J16">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N16">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O16">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P16">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q16">
-        <v>1.343723649954</v>
+        <v>0.1243409584533334</v>
       </c>
       <c r="R16">
-        <v>12.093512849586</v>
+        <v>1.11906862608</v>
       </c>
       <c r="S16">
-        <v>0.03485424330196973</v>
+        <v>0.004293211258705578</v>
       </c>
       <c r="T16">
-        <v>0.0412739288615301</v>
+        <v>0.004799774901282522</v>
       </c>
     </row>
   </sheetData>
